--- a/Particles_1h.xlsx
+++ b/Particles_1h.xlsx
@@ -454,7 +454,7 @@
         <v>24947.6665432099</v>
       </c>
       <c r="L2">
-        <v>1.60137667946619</v>
+        <v>20.98859555358534</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         <v>87259.467777778</v>
       </c>
       <c r="L3">
-        <v>5.620628844315517</v>
+        <v>73.26033984687733</v>
       </c>
     </row>
     <row r="4">
@@ -530,7 +530,7 @@
         <v>69297.33777777779</v>
       </c>
       <c r="L4">
-        <v>4.459174955423325</v>
+        <v>58.21457131718568</v>
       </c>
     </row>
     <row r="5">
@@ -568,7 +568,7 @@
         <v>79525.951728395</v>
       </c>
       <c r="L5">
-        <v>5.12028639732905</v>
+        <v>66.78465421213576</v>
       </c>
     </row>
     <row r="6">
@@ -606,7 +606,7 @@
         <v>163374.863333333</v>
       </c>
       <c r="L6">
-        <v>10.56801721496617</v>
+        <v>136.8180140279649</v>
       </c>
     </row>
     <row r="7">
@@ -644,7 +644,7 @@
         <v>140822.951728395</v>
       </c>
       <c r="L7">
-        <v>9.09784571267471</v>
+        <v>118.0204308052933</v>
       </c>
     </row>
     <row r="8">
@@ -682,7 +682,7 @@
         <v>6813.489629629599</v>
       </c>
       <c r="L8">
-        <v>0.4369111140120023</v>
+        <v>5.735664905511727</v>
       </c>
     </row>
     <row r="9">
@@ -720,7 +720,7 @@
         <v>270140.986790123</v>
       </c>
       <c r="L9">
-        <v>17.57765676083391</v>
+        <v>225.4255952618373</v>
       </c>
     </row>
     <row r="10">
@@ -758,7 +758,7 @@
         <v>329946.424814815</v>
       </c>
       <c r="L10">
-        <v>21.539845576674</v>
+        <v>274.7819207331827</v>
       </c>
     </row>
     <row r="11">
@@ -796,7 +796,7 @@
         <v>382182.136172839</v>
       </c>
       <c r="L11">
-        <v>25.02151144765552</v>
+        <v>317.72803831759</v>
       </c>
     </row>
     <row r="12">
@@ -834,7 +834,7 @@
         <v>129258.483333333</v>
       </c>
       <c r="L12">
-        <v>8.34536608518302</v>
+        <v>108.3701648980565</v>
       </c>
     </row>
     <row r="13">
@@ -872,7 +872,7 @@
         <v>146412.849012346</v>
       </c>
       <c r="L13">
-        <v>9.461914271337323</v>
+        <v>122.6823917835596</v>
       </c>
     </row>
     <row r="14">
@@ -910,7 +910,7 @@
         <v>318886.264814815</v>
       </c>
       <c r="L14">
-        <v>20.80516266747649</v>
+        <v>265.6691947602072</v>
       </c>
     </row>
     <row r="15">
@@ -948,7 +948,7 @@
         <v>384991.582839506</v>
       </c>
       <c r="L15">
-        <v>25.20932385011564</v>
+        <v>320.0335448155005</v>
       </c>
     </row>
     <row r="16">
@@ -986,7 +986,7 @@
         <v>350403.745555556</v>
       </c>
       <c r="L16">
-        <v>22.90105637397535</v>
+        <v>291.6192253704818</v>
       </c>
     </row>
     <row r="17">
@@ -1024,7 +1024,7 @@
         <v>134174.578518518</v>
       </c>
       <c r="L17">
-        <v>8.665130583848434</v>
+        <v>112.4734366164676</v>
       </c>
     </row>
     <row r="18">
@@ -1062,7 +1062,7 @@
         <v>196424.445185185</v>
       </c>
       <c r="L18">
-        <v>12.72912542352907</v>
+        <v>164.3144726500424</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1100,7 @@
         <v>30372.5549382716</v>
       </c>
       <c r="L19">
-        <v>1.950187905698329</v>
+        <v>25.54799062830038</v>
       </c>
     </row>
     <row r="20">
@@ -1138,7 +1138,7 @@
         <v>307379.053209876</v>
       </c>
       <c r="L20">
-        <v>20.04171485898569</v>
+        <v>256.1808975603833</v>
       </c>
     </row>
     <row r="21">
@@ -1176,7 +1176,7 @@
         <v>346201.118518518</v>
       </c>
       <c r="L21">
-        <v>22.62117264088855</v>
+        <v>288.1621755176398</v>
       </c>
     </row>
     <row r="22">
@@ -1214,7 +1214,7 @@
         <v>1052241.27271605</v>
       </c>
       <c r="L22">
-        <v>71.41801951128424</v>
+        <v>855.1402337761565</v>
       </c>
     </row>
     <row r="23">
@@ -1252,7 +1252,7 @@
         <v>269631.542592593</v>
       </c>
       <c r="L23">
-        <v>17.5440155701929</v>
+        <v>225.0043043012857</v>
       </c>
     </row>
     <row r="24">
@@ -1290,7 +1290,7 @@
         <v>1572239.10419753</v>
       </c>
       <c r="L24">
-        <v>109.6424164248144</v>
+        <v>1254.957194324928</v>
       </c>
     </row>
     <row r="25">
@@ -1328,7 +1328,7 @@
         <v>179002.868395062</v>
       </c>
       <c r="L25">
-        <v>11.58895453053724</v>
+        <v>149.8277243193848</v>
       </c>
     </row>
     <row r="26">
@@ -1366,7 +1366,7 @@
         <v>255878.051728395</v>
       </c>
       <c r="L26">
-        <v>16.63650589061252</v>
+        <v>213.6252256901615</v>
       </c>
     </row>
     <row r="27">
@@ -1404,7 +1404,7 @@
         <v>4211.171481481501</v>
       </c>
       <c r="L27">
-        <v>0.2699996682283727</v>
+        <v>3.545312319135658</v>
       </c>
     </row>
     <row r="28">
@@ -1442,7 +1442,7 @@
         <v>125921.129753086</v>
       </c>
       <c r="L28">
-        <v>8.128388646514894</v>
+        <v>105.5838394447147</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1480,7 @@
         <v>140601.278395062</v>
       </c>
       <c r="L29">
-        <v>9.08341280448195</v>
+        <v>117.8355198837532</v>
       </c>
     </row>
     <row r="30">
@@ -1518,7 +1518,7 @@
         <v>1535439.92765432</v>
       </c>
       <c r="L30">
-        <v>106.8736085032368</v>
+        <v>1227.158358092755</v>
       </c>
     </row>
     <row r="31">
@@ -1556,7 +1556,7 @@
         <v>180865.935432099</v>
       </c>
       <c r="L31">
-        <v>11.71078072565757</v>
+        <v>151.3777477571589</v>
       </c>
     </row>
     <row r="32">
@@ -1594,7 +1594,7 @@
         <v>344604.501728395</v>
       </c>
       <c r="L32">
-        <v>22.51487542225226</v>
+        <v>286.8485524189529</v>
       </c>
     </row>
     <row r="33">
@@ -1632,7 +1632,7 @@
         <v>203896.902098765</v>
       </c>
       <c r="L33">
-        <v>13.21883402339826</v>
+        <v>170.5229414125028</v>
       </c>
     </row>
     <row r="34">
@@ -1670,7 +1670,7 @@
         <v>235001.941604938</v>
       </c>
       <c r="L34">
-        <v>15.26160935339728</v>
+        <v>196.3330409074894</v>
       </c>
     </row>
     <row r="35">
@@ -1708,7 +1708,7 @@
         <v>105296.781481481</v>
       </c>
       <c r="L35">
-        <v>6.78927206566537</v>
+        <v>88.35099470378361</v>
       </c>
     </row>
   </sheetData>
